--- a/CGPA.xlsx
+++ b/CGPA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="18240" windowHeight="3660"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="18240" windowHeight="3660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Marks</t>
   </si>
@@ -109,13 +109,130 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>All marks earned</t>
+  </si>
+  <si>
+    <t>Total marks</t>
+  </si>
+  <si>
+    <t>Letter Grade</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>97%-99%</t>
+  </si>
+  <si>
+    <t>4.33/4.00 or 4.00/4.00</t>
+  </si>
+  <si>
+    <t>93%-96%</t>
+  </si>
+  <si>
+    <t>4.00/4.00</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>90%-92%</t>
+  </si>
+  <si>
+    <t>3.67/4.00</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>87%-89%</t>
+  </si>
+  <si>
+    <t>3.33/4.00</t>
+  </si>
+  <si>
+    <t>83%-86%</t>
+  </si>
+  <si>
+    <t>3.00/4.00</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>80%-82%</t>
+  </si>
+  <si>
+    <t>2.67/4.00</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>77%-79%</t>
+  </si>
+  <si>
+    <t>2.33/4.00</t>
+  </si>
+  <si>
+    <t>73%-76%</t>
+  </si>
+  <si>
+    <t>2.00/4.00</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>70%-72%</t>
+  </si>
+  <si>
+    <t>1.67/4.00</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>67%-69%</t>
+  </si>
+  <si>
+    <t>1.33/4.00</t>
+  </si>
+  <si>
+    <t>63%-66%</t>
+  </si>
+  <si>
+    <t>1.00/4.00</t>
+  </si>
+  <si>
+    <t>D-</t>
+  </si>
+  <si>
+    <t>60%-62%</t>
+  </si>
+  <si>
+    <t>0.67/4.00</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>&lt; 60%</t>
+  </si>
+  <si>
+    <t>0.00/4.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
@@ -234,8 +351,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +407,20 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -408,8 +550,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -428,12 +585,20 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="Bad" xfId="7" builtinId="27" hidden="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" hidden="1"/>
@@ -449,6 +614,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" hidden="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" hidden="1"/>
+    <cellStyle name="Percent" xfId="18" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" hidden="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" hidden="1"/>
@@ -769,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -899,13 +1065,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -920,6 +1089,9 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -939,6 +1111,9 @@
         <f>(D2/10)+0.75</f>
         <v>8.8529999999999998</v>
       </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -958,6 +1133,9 @@
         <f t="shared" ref="E3:E9" si="0">(D3/10)+0.75</f>
         <v>9.343</v>
       </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -977,6 +1155,9 @@
         <f t="shared" si="0"/>
         <v>7.0609999999999999</v>
       </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -996,6 +1177,9 @@
         <f t="shared" si="0"/>
         <v>6.9270000000000005</v>
       </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1015,6 +1199,9 @@
         <f t="shared" si="0"/>
         <v>6.6829999999999998</v>
       </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1034,6 +1221,9 @@
         <f t="shared" si="0"/>
         <v>6.6829999999999998</v>
       </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1053,6 +1243,9 @@
         <f t="shared" si="0"/>
         <v>7.1379999999999999</v>
       </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1072,6 +1265,9 @@
         <f t="shared" si="0"/>
         <v>8.35</v>
       </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1082,8 +1278,190 @@
         <v>7.6297499999999996</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <f>SUM(628+666+568+556+534+543+575+570)</f>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f>SUM(775+775+900+900+900+900+900+750)</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <f>(B14/B15)</f>
+        <v>0.68235294117647061</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>